--- a/Electrolineras_contruidas.xlsx
+++ b/Electrolineras_contruidas.xlsx
@@ -565,22 +565,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -589,34 +589,34 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>4</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>5</v>
-      </c>
       <c r="O3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>6</v>
       </c>
       <c r="S3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>

--- a/Electrolineras_contruidas.xlsx
+++ b/Electrolineras_contruidas.xlsx
@@ -565,13 +565,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -580,28 +580,28 @@
         <v>4</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>7</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -616,13 +616,13 @@
         <v>6</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -669,13 +669,13 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>

--- a/Electrolineras_contruidas.xlsx
+++ b/Electrolineras_contruidas.xlsx
@@ -630,7 +630,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -669,13 +669,13 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>4</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
